--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N2">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q2">
-        <v>30.54671948813467</v>
+        <v>5.191981389271556</v>
       </c>
       <c r="R2">
-        <v>274.920475393212</v>
+        <v>46.727832503444</v>
       </c>
       <c r="S2">
-        <v>0.006981178254290795</v>
+        <v>0.001205235658512066</v>
       </c>
       <c r="T2">
-        <v>0.006981178254290795</v>
+        <v>0.001205235658512066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
         <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P3">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q3">
-        <v>173.4707831700896</v>
+        <v>49.27110930383844</v>
       </c>
       <c r="R3">
-        <v>1561.237048530806</v>
+        <v>443.4399837345459</v>
       </c>
       <c r="S3">
-        <v>0.0396451887310592</v>
+        <v>0.01143750206619351</v>
       </c>
       <c r="T3">
-        <v>0.0396451887310592</v>
+        <v>0.01143750206619351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N4">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O4">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P4">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q4">
-        <v>15.63755168820333</v>
+        <v>10.229015125044</v>
       </c>
       <c r="R4">
-        <v>140.73796519383</v>
+        <v>92.061136125396</v>
       </c>
       <c r="S4">
-        <v>0.00357382192344543</v>
+        <v>0.002374502690945119</v>
       </c>
       <c r="T4">
-        <v>0.00357382192344543</v>
+        <v>0.002374502690945119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N5">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q5">
-        <v>538.3164453099914</v>
+        <v>322.1366935923949</v>
       </c>
       <c r="R5">
-        <v>4844.848007789923</v>
+        <v>2899.230242331554</v>
       </c>
       <c r="S5">
-        <v>0.1230273864067463</v>
+        <v>0.07477889478475228</v>
       </c>
       <c r="T5">
-        <v>0.1230273864067463</v>
+        <v>0.07477889478475228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N6">
         <v>23.817751</v>
       </c>
       <c r="O6">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P6">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q6">
         <v>3057.02795344474</v>
       </c>
       <c r="R6">
-        <v>27513.25158100267</v>
+        <v>27513.25158100266</v>
       </c>
       <c r="S6">
-        <v>0.6986562691171243</v>
+        <v>0.7096402745535837</v>
       </c>
       <c r="T6">
-        <v>0.6986562691171242</v>
+        <v>0.7096402745535837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N7">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O7">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P7">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q7">
-        <v>275.5762772305117</v>
+        <v>634.6596538071541</v>
       </c>
       <c r="R7">
-        <v>2480.186495074605</v>
+        <v>5711.936884264387</v>
       </c>
       <c r="S7">
-        <v>0.06298048190567059</v>
+        <v>0.1473261147214212</v>
       </c>
       <c r="T7">
-        <v>0.06298048190567057</v>
+        <v>0.1473261147214212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N8">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q8">
-        <v>39.63493355828599</v>
+        <v>18.40604361953311</v>
       </c>
       <c r="R8">
-        <v>356.714402024574</v>
+        <v>165.654392575798</v>
       </c>
       <c r="S8">
-        <v>0.009058207915741832</v>
+        <v>0.004272669418312803</v>
       </c>
       <c r="T8">
-        <v>0.009058207915741832</v>
+        <v>0.004272669418312802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N9">
         <v>23.817751</v>
       </c>
       <c r="O9">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P9">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q9">
-        <v>225.0815498509097</v>
+        <v>174.6705388627119</v>
       </c>
       <c r="R9">
-        <v>2025.733948658187</v>
+        <v>1572.034849764407</v>
       </c>
       <c r="S9">
-        <v>0.05144036569529495</v>
+        <v>0.04054697930232645</v>
       </c>
       <c r="T9">
-        <v>0.05144036569529494</v>
+        <v>0.04054697930232645</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N10">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O10">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P10">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q10">
-        <v>20.290012563115</v>
+        <v>36.262783792998</v>
       </c>
       <c r="R10">
-        <v>182.610113068035</v>
+        <v>326.365054136982</v>
       </c>
       <c r="S10">
-        <v>0.00463710005062659</v>
+        <v>0.00841782680395288</v>
       </c>
       <c r="T10">
-        <v>0.004637100050626589</v>
+        <v>0.00841782680395288</v>
       </c>
     </row>
   </sheetData>
